--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vegfa-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vegfa-Gpc1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.626383</v>
+        <v>2.628848666666667</v>
       </c>
       <c r="H2">
-        <v>10.879149</v>
+        <v>7.886546000000001</v>
       </c>
       <c r="I2">
-        <v>0.04794321320295086</v>
+        <v>0.04622248078033103</v>
       </c>
       <c r="J2">
-        <v>0.05075107175358264</v>
+        <v>0.04850184447997802</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9640756666666667</v>
+        <v>1.525469666666667</v>
       </c>
       <c r="N2">
-        <v>2.892227</v>
+        <v>4.576409</v>
       </c>
       <c r="O2">
-        <v>0.03116597139157128</v>
+        <v>0.02884292053092702</v>
       </c>
       <c r="P2">
-        <v>0.03985704515756099</v>
+        <v>0.03941949540871108</v>
       </c>
       <c r="Q2">
-        <v>3.496107608313667</v>
+        <v>4.010228899257111</v>
       </c>
       <c r="R2">
-        <v>31.464968474823</v>
+        <v>36.092060093314</v>
       </c>
       <c r="S2">
-        <v>0.001494196811103169</v>
+        <v>0.001333191339889389</v>
       </c>
       <c r="T2">
-        <v>0.002022787758677161</v>
+        <v>0.001911918235792513</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.626383</v>
+        <v>2.628848666666667</v>
       </c>
       <c r="H3">
-        <v>10.879149</v>
+        <v>7.886546000000001</v>
       </c>
       <c r="I3">
-        <v>0.04794321320295086</v>
+        <v>0.04622248078033103</v>
       </c>
       <c r="J3">
-        <v>0.05075107175358264</v>
+        <v>0.04850184447997802</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.821209666666666</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N3">
         <v>20.463629</v>
       </c>
       <c r="O3">
-        <v>0.2205113485150814</v>
+        <v>0.1289724814852373</v>
       </c>
       <c r="P3">
-        <v>0.2820040699227877</v>
+        <v>0.1762661356122381</v>
       </c>
       <c r="Q3">
-        <v>24.73631877463566</v>
+        <v>17.93192793727045</v>
       </c>
       <c r="R3">
-        <v>222.626868971721</v>
+        <v>161.387351435434</v>
       </c>
       <c r="S3">
-        <v>0.01057202259552875</v>
+        <v>0.005961428046642982</v>
       </c>
       <c r="T3">
-        <v>0.01431200878745373</v>
+        <v>0.008549232696551487</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.626383</v>
+        <v>2.628848666666667</v>
       </c>
       <c r="H4">
-        <v>10.879149</v>
+        <v>7.886546000000001</v>
       </c>
       <c r="I4">
-        <v>0.04794321320295086</v>
+        <v>0.04622248078033103</v>
       </c>
       <c r="J4">
-        <v>0.05075107175358264</v>
+        <v>0.04850184447997802</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.420191666666667</v>
+        <v>1.197510666666667</v>
       </c>
       <c r="N4">
-        <v>4.260575</v>
+        <v>3.592532</v>
       </c>
       <c r="O4">
-        <v>0.04591097398705006</v>
+        <v>0.02264201363575945</v>
       </c>
       <c r="P4">
-        <v>0.05871390114682403</v>
+        <v>0.03094474263109954</v>
       </c>
       <c r="Q4">
-        <v>5.150158916741667</v>
+        <v>3.148074319385779</v>
       </c>
       <c r="R4">
-        <v>46.351430250675</v>
+        <v>28.33266887447201</v>
       </c>
       <c r="S4">
-        <v>0.002201119614216272</v>
+        <v>0.001046570040106885</v>
       </c>
       <c r="T4">
-        <v>0.002979793410035224</v>
+        <v>0.001500877094566536</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.626383</v>
+        <v>2.628848666666667</v>
       </c>
       <c r="H5">
-        <v>10.879149</v>
+        <v>7.886546000000001</v>
       </c>
       <c r="I5">
-        <v>0.04794321320295086</v>
+        <v>0.04622248078033103</v>
       </c>
       <c r="J5">
-        <v>0.05075107175358264</v>
+        <v>0.04850184447997802</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.2357845</v>
+        <v>42.571562</v>
       </c>
       <c r="N5">
-        <v>40.471569</v>
+        <v>85.143124</v>
       </c>
       <c r="O5">
-        <v>0.6541684461278472</v>
+        <v>0.8049246776086439</v>
       </c>
       <c r="P5">
-        <v>0.5577284055609555</v>
+        <v>0.7333913960927264</v>
       </c>
       <c r="Q5">
-        <v>73.3827049024635</v>
+        <v>111.9141940016173</v>
       </c>
       <c r="R5">
-        <v>440.296229414781</v>
+        <v>671.4851640097041</v>
       </c>
       <c r="S5">
-        <v>0.03136293728335045</v>
+        <v>0.0372056154403797</v>
       </c>
       <c r="T5">
-        <v>0.02830531432963529</v>
+        <v>0.03557083543624338</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.626383</v>
+        <v>2.628848666666667</v>
       </c>
       <c r="H6">
-        <v>10.879149</v>
+        <v>7.886546000000001</v>
       </c>
       <c r="I6">
-        <v>0.04794321320295086</v>
+        <v>0.04622248078033103</v>
       </c>
       <c r="J6">
-        <v>0.05075107175358264</v>
+        <v>0.04850184447997802</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.492337666666667</v>
+        <v>0.7731246666666668</v>
       </c>
       <c r="N6">
-        <v>4.477012999999999</v>
+        <v>2.319374</v>
       </c>
       <c r="O6">
-        <v>0.04824325997845007</v>
+        <v>0.01461790673943223</v>
       </c>
       <c r="P6">
-        <v>0.06169657821187188</v>
+        <v>0.01997823025522497</v>
       </c>
       <c r="Q6">
-        <v>5.411787944659666</v>
+        <v>2.032427749133778</v>
       </c>
       <c r="R6">
-        <v>48.706091501937</v>
+        <v>18.291849742204</v>
       </c>
       <c r="S6">
-        <v>0.002312936898752218</v>
+        <v>0.0006756759133120778</v>
       </c>
       <c r="T6">
-        <v>0.003131167467781233</v>
+        <v>0.0009689810168241131</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>80.556074</v>
       </c>
       <c r="I7">
-        <v>0.3550017589220155</v>
+        <v>0.472133375270229</v>
       </c>
       <c r="J7">
-        <v>0.3757929128244233</v>
+        <v>0.4954156322762335</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9640756666666667</v>
+        <v>1.525469666666667</v>
       </c>
       <c r="N7">
-        <v>2.892227</v>
+        <v>4.576409</v>
       </c>
       <c r="O7">
-        <v>0.03116597139157128</v>
+        <v>0.02884292053092702</v>
       </c>
       <c r="P7">
-        <v>0.03985704515756099</v>
+        <v>0.03941949540871108</v>
       </c>
       <c r="Q7">
-        <v>25.88738358186644</v>
+        <v>40.96194911758511</v>
       </c>
       <c r="R7">
-        <v>232.986452236798</v>
+        <v>368.657542058266</v>
       </c>
       <c r="S7">
-        <v>0.01106397466252102</v>
+        <v>0.01361770542291756</v>
       </c>
       <c r="T7">
-        <v>0.01497799509633442</v>
+        <v>0.01952903424191668</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>80.556074</v>
       </c>
       <c r="I8">
-        <v>0.3550017589220155</v>
+        <v>0.472133375270229</v>
       </c>
       <c r="J8">
-        <v>0.3757929128244233</v>
+        <v>0.4954156322762335</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.821209666666666</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N8">
         <v>20.463629</v>
       </c>
       <c r="O8">
-        <v>0.2205113485150814</v>
+        <v>0.1289724814852373</v>
       </c>
       <c r="P8">
-        <v>0.2820040699227877</v>
+        <v>0.1762661356122381</v>
       </c>
       <c r="Q8">
         <v>183.1632902258384</v>
@@ -948,10 +948,10 @@
         <v>1648.469612032546</v>
       </c>
       <c r="S8">
-        <v>0.07828191658511947</v>
+        <v>0.06089221300060222</v>
       </c>
       <c r="T8">
-        <v>0.1059751308646267</v>
+        <v>0.08732499902322526</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>80.556074</v>
       </c>
       <c r="I9">
-        <v>0.3550017589220155</v>
+        <v>0.472133375270229</v>
       </c>
       <c r="J9">
-        <v>0.3757929128244233</v>
+        <v>0.4954156322762335</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.420191666666667</v>
+        <v>1.197510666666667</v>
       </c>
       <c r="N9">
-        <v>4.260575</v>
+        <v>3.592532</v>
       </c>
       <c r="O9">
-        <v>0.04591097398705006</v>
+        <v>0.02264201363575945</v>
       </c>
       <c r="P9">
-        <v>0.05871390114682403</v>
+        <v>0.03094474263109954</v>
       </c>
       <c r="Q9">
-        <v>38.13502166472778</v>
+        <v>32.15558595992978</v>
       </c>
       <c r="R9">
-        <v>343.21519498255</v>
+        <v>289.400273639368</v>
       </c>
       <c r="S9">
-        <v>0.01629847651922567</v>
+        <v>0.01069005032076566</v>
       </c>
       <c r="T9">
-        <v>0.02206426793525025</v>
+        <v>0.0153305092362115</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>80.556074</v>
       </c>
       <c r="I10">
-        <v>0.3550017589220155</v>
+        <v>0.472133375270229</v>
       </c>
       <c r="J10">
-        <v>0.3757929128244233</v>
+        <v>0.4954156322762335</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.2357845</v>
+        <v>42.571562</v>
       </c>
       <c r="N10">
-        <v>40.471569</v>
+        <v>85.143124</v>
       </c>
       <c r="O10">
-        <v>0.6541684461278472</v>
+        <v>0.8049246776086439</v>
       </c>
       <c r="P10">
-        <v>0.5577284055609555</v>
+        <v>0.7333913960927264</v>
       </c>
       <c r="Q10">
-        <v>543.3717845433511</v>
+        <v>1143.132632922529</v>
       </c>
       <c r="R10">
-        <v>3260.230707260106</v>
+        <v>6858.795797535176</v>
       </c>
       <c r="S10">
-        <v>0.2322309490066675</v>
+        <v>0.38003180487767</v>
       </c>
       <c r="T10">
-        <v>0.2095903820906728</v>
+        <v>0.3633335622012277</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>80.556074</v>
       </c>
       <c r="I11">
-        <v>0.3550017589220155</v>
+        <v>0.472133375270229</v>
       </c>
       <c r="J11">
-        <v>0.3757929128244233</v>
+        <v>0.4954156322762335</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.492337666666667</v>
+        <v>0.7731246666666668</v>
       </c>
       <c r="N11">
-        <v>4.477012999999999</v>
+        <v>2.319374</v>
       </c>
       <c r="O11">
-        <v>0.04824325997845007</v>
+        <v>0.01461790673943223</v>
       </c>
       <c r="P11">
-        <v>0.06169657821187188</v>
+        <v>0.01997823025522497</v>
       </c>
       <c r="Q11">
-        <v>40.0722878363291</v>
+        <v>20.75996261974178</v>
       </c>
       <c r="R11">
-        <v>360.6505905269619</v>
+        <v>186.839663577676</v>
       </c>
       <c r="S11">
-        <v>0.01712644214848185</v>
+        <v>0.006901601648273568</v>
       </c>
       <c r="T11">
-        <v>0.02318513683753919</v>
+        <v>0.009897527573652457</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.189183</v>
+        <v>11.96574466666667</v>
       </c>
       <c r="H12">
-        <v>39.567549</v>
+        <v>35.897234</v>
       </c>
       <c r="I12">
-        <v>0.1743698369812937</v>
+        <v>0.2103911152781009</v>
       </c>
       <c r="J12">
-        <v>0.1845820402324113</v>
+        <v>0.2207661073338543</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9640756666666667</v>
+        <v>1.525469666666667</v>
       </c>
       <c r="N12">
-        <v>2.892227</v>
+        <v>4.576409</v>
       </c>
       <c r="O12">
-        <v>0.03116597139157128</v>
+        <v>0.02884292053092702</v>
       </c>
       <c r="P12">
-        <v>0.03985704515756099</v>
+        <v>0.03941949540871108</v>
       </c>
       <c r="Q12">
-        <v>12.71537039351367</v>
+        <v>18.25338052807844</v>
       </c>
       <c r="R12">
-        <v>114.438333541623</v>
+        <v>164.280424752706</v>
       </c>
       <c r="S12">
-        <v>0.005434405350911949</v>
+        <v>0.006068294218379369</v>
       </c>
       <c r="T12">
-        <v>0.007356894712817956</v>
+        <v>0.008702488554445886</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.189183</v>
+        <v>11.96574466666667</v>
       </c>
       <c r="H13">
-        <v>39.567549</v>
+        <v>35.897234</v>
       </c>
       <c r="I13">
-        <v>0.1743698369812937</v>
+        <v>0.2103911152781009</v>
       </c>
       <c r="J13">
-        <v>0.1845820402324113</v>
+        <v>0.2207661073338543</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.821209666666666</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N13">
         <v>20.463629</v>
       </c>
       <c r="O13">
-        <v>0.2205113485150814</v>
+        <v>0.1289724814852373</v>
       </c>
       <c r="P13">
-        <v>0.2820040699227877</v>
+        <v>0.1762661356122381</v>
       </c>
       <c r="Q13">
-        <v>89.96618257503565</v>
+        <v>81.62085318913178</v>
       </c>
       <c r="R13">
-        <v>809.6956431753209</v>
+        <v>734.5876787021859</v>
       </c>
       <c r="S13">
-        <v>0.03845052789309999</v>
+        <v>0.0271346642198633</v>
       </c>
       <c r="T13">
-        <v>0.05205288658019172</v>
+        <v>0.03891358861389507</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.189183</v>
+        <v>11.96574466666667</v>
       </c>
       <c r="H14">
-        <v>39.567549</v>
+        <v>35.897234</v>
       </c>
       <c r="I14">
-        <v>0.1743698369812937</v>
+        <v>0.2103911152781009</v>
       </c>
       <c r="J14">
-        <v>0.1845820402324113</v>
+        <v>0.2207661073338543</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.420191666666667</v>
+        <v>1.197510666666667</v>
       </c>
       <c r="N14">
-        <v>4.260575</v>
+        <v>3.592532</v>
       </c>
       <c r="O14">
-        <v>0.04591097398705006</v>
+        <v>0.02264201363575945</v>
       </c>
       <c r="P14">
-        <v>0.05871390114682403</v>
+        <v>0.03094474263109954</v>
       </c>
       <c r="Q14">
-        <v>18.73116778674167</v>
+        <v>14.32910687294311</v>
       </c>
       <c r="R14">
-        <v>168.580510080675</v>
+        <v>128.961961856488</v>
       </c>
       <c r="S14">
-        <v>0.008005489049774337</v>
+        <v>0.0047636785009694</v>
       </c>
       <c r="T14">
-        <v>0.01083753166368489</v>
+        <v>0.006831550373115818</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.189183</v>
+        <v>11.96574466666667</v>
       </c>
       <c r="H15">
-        <v>39.567549</v>
+        <v>35.897234</v>
       </c>
       <c r="I15">
-        <v>0.1743698369812937</v>
+        <v>0.2103911152781009</v>
       </c>
       <c r="J15">
-        <v>0.1845820402324113</v>
+        <v>0.2207661073338543</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.2357845</v>
+        <v>42.571562</v>
       </c>
       <c r="N15">
-        <v>40.471569</v>
+        <v>85.143124</v>
       </c>
       <c r="O15">
-        <v>0.6541684461278472</v>
+        <v>0.8049246776086439</v>
       </c>
       <c r="P15">
-        <v>0.5577284055609555</v>
+        <v>0.7333913960927264</v>
       </c>
       <c r="Q15">
-        <v>266.8934649190635</v>
+        <v>509.4004409531693</v>
       </c>
       <c r="R15">
-        <v>1601.360789514381</v>
+        <v>3056.402645719016</v>
       </c>
       <c r="S15">
-        <v>0.114067245309619</v>
+        <v>0.1693490006369484</v>
       </c>
       <c r="T15">
-        <v>0.1029466469940109</v>
+        <v>0.1619079636675321</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.189183</v>
+        <v>11.96574466666667</v>
       </c>
       <c r="H16">
-        <v>39.567549</v>
+        <v>35.897234</v>
       </c>
       <c r="I16">
-        <v>0.1743698369812937</v>
+        <v>0.2103911152781009</v>
       </c>
       <c r="J16">
-        <v>0.1845820402324113</v>
+        <v>0.2207661073338543</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.492337666666667</v>
+        <v>0.7731246666666668</v>
       </c>
       <c r="N16">
-        <v>4.477012999999999</v>
+        <v>2.319374</v>
       </c>
       <c r="O16">
-        <v>0.04824325997845007</v>
+        <v>0.01461790673943223</v>
       </c>
       <c r="P16">
-        <v>0.06169657821187188</v>
+        <v>0.01997823025522497</v>
       </c>
       <c r="Q16">
-        <v>19.68271458345966</v>
+        <v>9.251012356835112</v>
       </c>
       <c r="R16">
-        <v>177.144431251137</v>
+        <v>83.259111211516</v>
       </c>
       <c r="S16">
-        <v>0.008412169377888513</v>
+        <v>0.003075477701940415</v>
       </c>
       <c r="T16">
-        <v>0.01138808028170584</v>
+        <v>0.004410516124865451</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.554453</v>
+        <v>8.018423</v>
       </c>
       <c r="H17">
-        <v>25.108906</v>
+        <v>16.036846</v>
       </c>
       <c r="I17">
-        <v>0.1659782810655758</v>
+        <v>0.1409862072722574</v>
       </c>
       <c r="J17">
-        <v>0.1171326810635613</v>
+        <v>0.09862576223372788</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9640756666666667</v>
+        <v>1.525469666666667</v>
       </c>
       <c r="N17">
-        <v>2.892227</v>
+        <v>4.576409</v>
       </c>
       <c r="O17">
-        <v>0.03116597139157128</v>
+        <v>0.02884292053092702</v>
       </c>
       <c r="P17">
-        <v>0.03985704515756099</v>
+        <v>0.03941949540871108</v>
       </c>
       <c r="Q17">
-        <v>12.10344264561033</v>
+        <v>12.23186106100233</v>
       </c>
       <c r="R17">
-        <v>72.620655873662</v>
+        <v>73.39116636601401</v>
       </c>
       <c r="S17">
-        <v>0.005172874359311913</v>
+        <v>0.004066453972310526</v>
       </c>
       <c r="T17">
-        <v>0.004668562558576551</v>
+        <v>0.003887777781553066</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.554453</v>
+        <v>8.018423</v>
       </c>
       <c r="H18">
-        <v>25.108906</v>
+        <v>16.036846</v>
       </c>
       <c r="I18">
-        <v>0.1659782810655758</v>
+        <v>0.1409862072722574</v>
       </c>
       <c r="J18">
-        <v>0.1171326810635613</v>
+        <v>0.09862576223372788</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.821209666666666</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N18">
         <v>20.463629</v>
       </c>
       <c r="O18">
-        <v>0.2205113485150814</v>
+        <v>0.1289724814852373</v>
       </c>
       <c r="P18">
-        <v>0.2820040699227877</v>
+        <v>0.1762661356122381</v>
       </c>
       <c r="Q18">
-        <v>85.63655616331231</v>
+        <v>54.69534447902234</v>
       </c>
       <c r="R18">
-        <v>513.8193369798739</v>
+        <v>328.172066874134</v>
       </c>
       <c r="S18">
-        <v>0.03660009458198533</v>
+        <v>0.01818334100709506</v>
       </c>
       <c r="T18">
-        <v>0.03303189278089212</v>
+        <v>0.01738438198075063</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.554453</v>
+        <v>8.018423</v>
       </c>
       <c r="H19">
-        <v>25.108906</v>
+        <v>16.036846</v>
       </c>
       <c r="I19">
-        <v>0.1659782810655758</v>
+        <v>0.1409862072722574</v>
       </c>
       <c r="J19">
-        <v>0.1171326810635613</v>
+        <v>0.09862576223372788</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.420191666666667</v>
+        <v>1.197510666666667</v>
       </c>
       <c r="N19">
-        <v>4.260575</v>
+        <v>3.592532</v>
       </c>
       <c r="O19">
-        <v>0.04591097398705006</v>
+        <v>0.02264201363575945</v>
       </c>
       <c r="P19">
-        <v>0.05871390114682403</v>
+        <v>0.03094474263109954</v>
       </c>
       <c r="Q19">
-        <v>17.82972953015833</v>
+        <v>9.602147072345335</v>
       </c>
       <c r="R19">
-        <v>106.97837718095</v>
+        <v>57.61288243407201</v>
       </c>
       <c r="S19">
-        <v>0.007620224544416934</v>
+        <v>0.003192211627512462</v>
       </c>
       <c r="T19">
-        <v>0.006877316657028403</v>
+        <v>0.003051948829118726</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.554453</v>
+        <v>8.018423</v>
       </c>
       <c r="H20">
-        <v>25.108906</v>
+        <v>16.036846</v>
       </c>
       <c r="I20">
-        <v>0.1659782810655758</v>
+        <v>0.1409862072722574</v>
       </c>
       <c r="J20">
-        <v>0.1171326810635613</v>
+        <v>0.09862576223372788</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.2357845</v>
+        <v>42.571562</v>
       </c>
       <c r="N20">
-        <v>40.471569</v>
+        <v>85.143124</v>
       </c>
       <c r="O20">
-        <v>0.6541684461278472</v>
+        <v>0.8049246776086439</v>
       </c>
       <c r="P20">
-        <v>0.5577284055609555</v>
+        <v>0.7333913960927264</v>
       </c>
       <c r="Q20">
-        <v>254.0492054233785</v>
+        <v>341.356791886726</v>
       </c>
       <c r="R20">
-        <v>1016.196821693514</v>
+        <v>1365.427167546904</v>
       </c>
       <c r="S20">
-        <v>0.1085777542156388</v>
+        <v>0.1134832774358873</v>
       </c>
       <c r="T20">
-        <v>0.06532822344865995</v>
+        <v>0.07233128545530298</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.554453</v>
+        <v>8.018423</v>
       </c>
       <c r="H21">
-        <v>25.108906</v>
+        <v>16.036846</v>
       </c>
       <c r="I21">
-        <v>0.1659782810655758</v>
+        <v>0.1409862072722574</v>
       </c>
       <c r="J21">
-        <v>0.1171326810635613</v>
+        <v>0.09862576223372788</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.492337666666667</v>
+        <v>0.7731246666666668</v>
       </c>
       <c r="N21">
-        <v>4.477012999999999</v>
+        <v>2.319374</v>
       </c>
       <c r="O21">
-        <v>0.04824325997845007</v>
+        <v>0.01461790673943223</v>
       </c>
       <c r="P21">
-        <v>0.06169657821187188</v>
+        <v>0.01997823025522497</v>
       </c>
       <c r="Q21">
-        <v>18.73548309629633</v>
+        <v>6.199240609067335</v>
       </c>
       <c r="R21">
-        <v>112.412898577778</v>
+        <v>37.19544365440401</v>
       </c>
       <c r="S21">
-        <v>0.008007333364222831</v>
+        <v>0.002060923229452121</v>
       </c>
       <c r="T21">
-        <v>0.007226685618404251</v>
+        <v>0.001970368187002487</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>19.41708766666667</v>
+        <v>7.408770666666666</v>
       </c>
       <c r="H22">
-        <v>58.251263</v>
+        <v>22.226312</v>
       </c>
       <c r="I22">
-        <v>0.2567069098281642</v>
+        <v>0.1302668213990815</v>
       </c>
       <c r="J22">
-        <v>0.2717412941260215</v>
+        <v>0.1366906536762062</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.9640756666666667</v>
+        <v>1.525469666666667</v>
       </c>
       <c r="N22">
-        <v>2.892227</v>
+        <v>4.576409</v>
       </c>
       <c r="O22">
-        <v>0.03116597139157128</v>
+        <v>0.02884292053092702</v>
       </c>
       <c r="P22">
-        <v>0.03985704515756099</v>
+        <v>0.03941949540871108</v>
       </c>
       <c r="Q22">
-        <v>18.71954173696678</v>
+        <v>11.30185491928978</v>
       </c>
       <c r="R22">
-        <v>168.475875632701</v>
+        <v>101.716694273608</v>
       </c>
       <c r="S22">
-        <v>0.008000520207723233</v>
+        <v>0.003757275577430171</v>
       </c>
       <c r="T22">
-        <v>0.0108308050311549</v>
+        <v>0.005388276595002926</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>19.41708766666667</v>
+        <v>7.408770666666666</v>
       </c>
       <c r="H23">
-        <v>58.251263</v>
+        <v>22.226312</v>
       </c>
       <c r="I23">
-        <v>0.2567069098281642</v>
+        <v>0.1302668213990815</v>
       </c>
       <c r="J23">
-        <v>0.2717412941260215</v>
+        <v>0.1366906536762062</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.821209666666666</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N23">
         <v>20.463629</v>
       </c>
       <c r="O23">
-        <v>0.2205113485150814</v>
+        <v>0.1289724814852373</v>
       </c>
       <c r="P23">
-        <v>0.2820040699227877</v>
+        <v>0.1762661356122381</v>
       </c>
       <c r="Q23">
-        <v>132.4480260903808</v>
+        <v>50.53677808958312</v>
       </c>
       <c r="R23">
-        <v>1192.032234813427</v>
+        <v>454.831002806248</v>
       </c>
       <c r="S23">
-        <v>0.05660678685934789</v>
+        <v>0.01680083521103376</v>
       </c>
       <c r="T23">
-        <v>0.0766321509096234</v>
+        <v>0.02409393329781563</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>19.41708766666667</v>
+        <v>7.408770666666666</v>
       </c>
       <c r="H24">
-        <v>58.251263</v>
+        <v>22.226312</v>
       </c>
       <c r="I24">
-        <v>0.2567069098281642</v>
+        <v>0.1302668213990815</v>
       </c>
       <c r="J24">
-        <v>0.2717412941260215</v>
+        <v>0.1366906536762062</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.420191666666667</v>
+        <v>1.197510666666667</v>
       </c>
       <c r="N24">
-        <v>4.260575</v>
+        <v>3.592532</v>
       </c>
       <c r="O24">
-        <v>0.04591097398705006</v>
+        <v>0.02264201363575945</v>
       </c>
       <c r="P24">
-        <v>0.05871390114682403</v>
+        <v>0.03094474263109954</v>
       </c>
       <c r="Q24">
-        <v>27.57598609513611</v>
+        <v>8.872081900220445</v>
       </c>
       <c r="R24">
-        <v>248.183874856225</v>
+        <v>79.848737101984</v>
       </c>
       <c r="S24">
-        <v>0.01178566425941685</v>
+        <v>0.002949503146405045</v>
       </c>
       <c r="T24">
-        <v>0.01595499148082526</v>
+        <v>0.004229857098086961</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>19.41708766666667</v>
+        <v>7.408770666666666</v>
       </c>
       <c r="H25">
-        <v>58.251263</v>
+        <v>22.226312</v>
       </c>
       <c r="I25">
-        <v>0.2567069098281642</v>
+        <v>0.1302668213990815</v>
       </c>
       <c r="J25">
-        <v>0.2717412941260215</v>
+        <v>0.1366906536762062</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.2357845</v>
+        <v>42.571562</v>
       </c>
       <c r="N25">
-        <v>40.471569</v>
+        <v>85.143124</v>
       </c>
       <c r="O25">
-        <v>0.6541684461278472</v>
+        <v>0.8049246776086439</v>
       </c>
       <c r="P25">
-        <v>0.5577284055609555</v>
+        <v>0.7333913960927264</v>
       </c>
       <c r="Q25">
-        <v>392.9200016402745</v>
+        <v>315.4029397797813</v>
       </c>
       <c r="R25">
-        <v>2357.520009841647</v>
+        <v>1892.417638678688</v>
       </c>
       <c r="S25">
-        <v>0.1679295603125716</v>
+        <v>0.1048549792177585</v>
       </c>
       <c r="T25">
-        <v>0.1515578386979766</v>
+        <v>0.1002477493324202</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>19.41708766666667</v>
+        <v>7.408770666666666</v>
       </c>
       <c r="H26">
-        <v>58.251263</v>
+        <v>22.226312</v>
       </c>
       <c r="I26">
-        <v>0.2567069098281642</v>
+        <v>0.1302668213990815</v>
       </c>
       <c r="J26">
-        <v>0.2717412941260215</v>
+        <v>0.1366906536762062</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.492337666666667</v>
+        <v>0.7731246666666668</v>
       </c>
       <c r="N26">
-        <v>4.477012999999999</v>
+        <v>2.319374</v>
       </c>
       <c r="O26">
-        <v>0.04824325997845007</v>
+        <v>0.01461790673943223</v>
       </c>
       <c r="P26">
-        <v>0.06169657821187188</v>
+        <v>0.01997823025522497</v>
       </c>
       <c r="Q26">
-        <v>28.97685130193544</v>
+        <v>5.727903352076445</v>
       </c>
       <c r="R26">
-        <v>260.791661717419</v>
+        <v>51.551130168688</v>
       </c>
       <c r="S26">
-        <v>0.01238437818910467</v>
+        <v>0.001904228246454049</v>
       </c>
       <c r="T26">
-        <v>0.01676550800644137</v>
+        <v>0.002730837352880461</v>
       </c>
     </row>
   </sheetData>
